--- a/medicine/Hématologie/Alginate_de_calcium/Alginate_de_calcium.xlsx
+++ b/medicine/Hématologie/Alginate_de_calcium/Alginate_de_calcium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'alginate de calcium ou polymannuronate calcique, de formule (C6H7Ca1/2O6)n, est un additif alimentaire (E404) utilisé dans les boissons, constitué d'alginate et de calcium. Il s'agit d'une longue molécule synthétisée à partir de l'acide alginique[1], extrait d'algues brunes, constitué d'unités glucidiques formant une chaîne.
+L'alginate de calcium ou polymannuronate calcique, de formule (C6H7Ca1/2O6)n, est un additif alimentaire (E404) utilisé dans les boissons, constitué d'alginate et de calcium. Il s'agit d'une longue molécule synthétisée à partir de l'acide alginique, extrait d'algues brunes, constitué d'unités glucidiques formant une chaîne.
 </t>
         </is>
       </c>
